--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07276531454055556</v>
+        <v>0.06382378128333334</v>
       </c>
       <c r="R2">
-        <v>0.654887830865</v>
+        <v>0.57441403155</v>
       </c>
       <c r="S2">
-        <v>0.0005258018014070192</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="T2">
-        <v>0.0005258018014070193</v>
+        <v>0.004318312013857221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>152.697487</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.094011867061111</v>
+        <v>0.09994898843522222</v>
       </c>
       <c r="R3">
-        <v>9.846106803550002</v>
+        <v>0.899540895917</v>
       </c>
       <c r="S3">
-        <v>0.007905324316859566</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="T3">
-        <v>0.007905324316859568</v>
+        <v>0.006762540683959845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.89916233333333</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H4">
-        <v>152.697487</v>
+        <v>9823.14746</v>
       </c>
       <c r="I4">
-        <v>0.01158082710438721</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J4">
-        <v>0.01158082710438721</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09994898843522221</v>
+        <v>6.429795742984446</v>
       </c>
       <c r="R4">
-        <v>0.8995408959169999</v>
+        <v>57.86816168686001</v>
       </c>
       <c r="S4">
-        <v>0.0007222308939344817</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="T4">
-        <v>0.0007222308939344817</v>
+        <v>0.435039473457653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.89916233333333</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H5">
-        <v>152.697487</v>
+        <v>21.836512</v>
       </c>
       <c r="I5">
-        <v>0.01158082710438721</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J5">
-        <v>0.01158082710438721</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.502712935954444</v>
+        <v>0.01429321024355556</v>
       </c>
       <c r="R5">
-        <v>13.52441642359</v>
+        <v>0.128638892192</v>
       </c>
       <c r="S5">
-        <v>0.01085859621045273</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="T5">
-        <v>0.01085859621045273</v>
+        <v>0.0009670774791190726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2007.446289</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H6">
-        <v>6022.338867</v>
+        <v>12484.710694</v>
       </c>
       <c r="I6">
-        <v>0.4567440273772037</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J6">
-        <v>0.4567440273772037</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.005891</v>
       </c>
       <c r="O6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3.941955362833</v>
+        <v>8.171936744261556</v>
       </c>
       <c r="R6">
-        <v>35.477598265497</v>
+        <v>73.54743069835401</v>
       </c>
       <c r="S6">
-        <v>0.02848454987009566</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="T6">
-        <v>0.02848454987009566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2007.446289</v>
-      </c>
-      <c r="H7">
-        <v>6022.338867</v>
-      </c>
-      <c r="I7">
-        <v>0.4567440273772037</v>
-      </c>
-      <c r="J7">
-        <v>0.4567440273772037</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>59.26650593891001</v>
-      </c>
-      <c r="R7">
-        <v>533.3985534501901</v>
-      </c>
-      <c r="S7">
-        <v>0.428259477507108</v>
-      </c>
-      <c r="T7">
-        <v>0.428259477507108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6.448603666666666</v>
-      </c>
-      <c r="H8">
-        <v>19.345811</v>
-      </c>
-      <c r="I8">
-        <v>0.00146721794043115</v>
-      </c>
-      <c r="J8">
-        <v>0.00146721794043115</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.01266290806677778</v>
-      </c>
-      <c r="R8">
-        <v>0.113966172601</v>
-      </c>
-      <c r="S8">
-        <v>9.150211078730803E-05</v>
-      </c>
-      <c r="T8">
-        <v>9.150211078730803E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.448603666666666</v>
-      </c>
-      <c r="H9">
-        <v>19.345811</v>
-      </c>
-      <c r="I9">
-        <v>0.00146721794043115</v>
-      </c>
-      <c r="J9">
-        <v>0.00146721794043115</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.1903842755855556</v>
-      </c>
-      <c r="R9">
-        <v>1.71345848027</v>
-      </c>
-      <c r="S9">
-        <v>0.001375715829643842</v>
-      </c>
-      <c r="T9">
-        <v>0.001375715829643842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2293.273345666667</v>
-      </c>
-      <c r="H10">
-        <v>6879.820037</v>
-      </c>
-      <c r="I10">
-        <v>0.5217768014597114</v>
-      </c>
-      <c r="J10">
-        <v>0.5217768014597114</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>4.503224426440778</v>
-      </c>
-      <c r="R10">
-        <v>40.529019837967</v>
-      </c>
-      <c r="S10">
-        <v>0.03254027733561109</v>
-      </c>
-      <c r="T10">
-        <v>0.03254027733561109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2293.273345666667</v>
-      </c>
-      <c r="H11">
-        <v>6879.820037</v>
-      </c>
-      <c r="I11">
-        <v>0.5217768014597114</v>
-      </c>
-      <c r="J11">
-        <v>0.5217768014597114</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>67.70507340856557</v>
-      </c>
-      <c r="R11">
-        <v>609.3456606770901</v>
-      </c>
-      <c r="S11">
-        <v>0.4892365241241003</v>
-      </c>
-      <c r="T11">
-        <v>0.4892365241241003</v>
+        <v>0.5529125963654108</v>
       </c>
     </row>
   </sheetData>
